--- a/dashboard_loader/indigenous_naplan_uploader/indigenous_naplan.xlsx
+++ b/dashboard_loader/indigenous_naplan_uploader/indigenous_naplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
   <si>
     <t xml:space="preserve">Values</t>
   </si>
@@ -110,16 +110,16 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Across the eight areas (reading and numeracy for Years 3, 5, 7 and 9), the proportion of Indigenous students achieving the National Minimum Standard (NMS) in the National Assessment Program – Literacy and Numeracy (NAPLAN) is on track in only one area (Year 9 numeracy). In the other seven areas, 2016 results were below the required trajectory points, meaning that progress will need to accelerate for this target to be met. This year’s results are less positive than the results for 2015, where four of the eight areas were on track. However, caution is required in interpreting these results, as they vary a lot from one year to the next.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results also vary by state and territory. Across the eight jurisdictions and the eight result areas, 29 of the 64 measures were on track (i.e. consistent with or above, the required trajectory points) in 2016. The Northern Territory was not on track for all eight areas, while the Australian Capital Territory was on track for all eight. </t>
+    <t xml:space="preserve">Across the eight areas (reading and numeracy for Years 3, 5, 7 and 9), the proportion of Indigenous students achieving the National Minimum Standard (NMS) in the National Assessment Program – Literacy and Numeracy (NAPLAN) is on track in only one area (Year 9 numeracy). In the other seven areas, 2016 results were below the required trajectory points, meaning that progress will need to accelerate for this target to be met. This year’s results are less positive than the results for 2015, where four of the eight areas were on track. However, caution is required in interpreting these findings due to the high year on year volatility of the results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results also vary by state and territory. Each state and territory has its own trajectory for each measure with trajectory points. These trajectory points make possible the annual assessment of whether progress is occurring at a sufficient rate to meet the target. Across the eight jurisdictions and the eight result areas, 29 of the 64 measures were on track (i.e. consistent with or above, the required trajectory points) in 2016. The Northern Territory was not on track for all eight areas, while the Australian Capital Territory was on track for all eight. </t>
   </si>
   <si>
     <t xml:space="preserve">Another way to assess progress is to see whether the latest results for Aboriginal and Torres Strait Islander students have improved. Between 2008 and 2016, at the national level, half of the eight areas showed statistically significant improvements in the proportion of Aboriginal and Torres Strait Islander students at or above the NMS. The four areas with significant improvement were Year 3 and 5 reading, and Years 5 and 9 numeracy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall there has been significant improvement in Indigenous student results for 15 of the 64 state-level measures (numeracy and reading across four year levels in eight jurisdictions). There was only one significant decline –Victoria in Year 3 numeracy. Queensland has shown the largest improvements, with significant improvement for Indigenous students in six of the eight measures from 2008 to 2016 (the two exceptions are Year 9 reading and Year 7 numeracy). The Northern Territory had the lowest proportion of Indigenous students at or above the NMS for each area measured.</t>
+    <t xml:space="preserve">Overall there has been significant improvement in Indigenous student results for 14 of the 64 state-level measures (numeracy and reading across four year levels in eight jurisdictions). There was only one significant decline – Victoria in Year 3 numeracy. Queensland has shown the largest improvements, with significant improvement for Indigenous students in six of the eight measures from 2008 to 2016 (the two exceptions are Year 9 reading and Year 7 numeracy). The Northern Territory also showed strong improvement in writing across all year levels and sustained improvement in the early years across all platforms.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t xml:space="preserve">Note that as the smallest jurisdiction, the ACT has the most uncertainty around its results. In 2016, the results for all eight areas were under the trajectory points, but were still consistent with the trajectories due to large confidence intervals around those results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourced from: Australian Curriculum, Assessment and Reporting Authority.</t>
   </si>
 </sst>
 </file>
@@ -141,11 +144,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,12 +169,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00000A"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -183,15 +181,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF00000A"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -269,20 +262,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -364,14 +357,14 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,17 +1941,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.270408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.964285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,67 +1971,72 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="6" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8" t="s">
+    <row r="6" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+    <row r="7" customFormat="false" ht="65.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/dashboard_loader/indigenous_naplan_uploader/indigenous_naplan.xlsx
+++ b/dashboard_loader/indigenous_naplan_uploader/indigenous_naplan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t xml:space="preserve">Values</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Another way to assess progress is to see whether the latest results for Aboriginal and Torres Strait Islander students have improved. Between 2008 and 2016, at the national level, half of the eight areas showed statistically significant improvements in the proportion of Aboriginal and Torres Strait Islander students at or above the NMS. The four areas with significant improvement were Year 3 and 5 reading, and Years 5 and 9 numeracy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Overall there has been significant improvement in Indigenous student results for 14 of the 64 state-level measures (numeracy and reading across four year levels in eight jurisdictions). There was only one significant decline – Victoria in Year 3 numeracy. Queensland has shown the largest improvements, with significant improvement for Indigenous students in six of the eight measures from 2008 to 2016 (the two exceptions are Year 9 reading and Year 7 numeracy). The Northern Territory also showed strong improvement in writing across all year levels and sustained improvement in the early years across all platforms.</t>
+    <t xml:space="preserve">Overall there has been significant improvement in Indigenous student results for 14 of the 64 state-level measures (numeracy and reading across four year levels in eight jurisdictions). There was only one significant decline - Victoria in Year 3 numeracy. Queensland has shown the largest improvements, with significant improvement for Indigenous students in six of the eight measures from 2008 to 2016 (the two exceptions are Year 9 reading and Year 7 numeracy). The Northern Territory also showed strong improvement in writing across all year levels and sustained improvement in the early years across all platforms.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -134,7 +134,10 @@
     <t xml:space="preserve">Note that as the smallest jurisdiction, the ACT has the most uncertainty around its results. In 2016, the results for all eight areas were under the trajectory points, but were still consistent with the trajectories due to large confidence intervals around those results.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sourced from: Australian Curriculum, Assessment and Reporting Authority.</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Curriculum, Assessment and Reporting Authority.</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -167,6 +170,87 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
@@ -187,21 +271,84 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -212,7 +359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,17 +383,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,53 +449,65 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -312,7 +519,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -328,7 +535,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -357,14 +564,14 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,15 +2150,15 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.964285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,13 +2211,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="77.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2018,19 +2225,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
